--- a/fdms/tests/sample_data.xlsx
+++ b/fdms/tests/sample_data.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="BE" sheetId="1" r:id="rId1"/>
     <sheet name="BE_AMECO" sheetId="2" r:id="rId2"/>
     <sheet name="BE_ORIG" sheetId="3" r:id="rId3"/>
+    <sheet name="base_series1" sheetId="4" r:id="rId4"/>
+    <sheet name="test_splice1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="50">
   <si>
     <t>Country AMECO</t>
   </si>
@@ -507,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2299,10 +2301,13 @@
   <dimension ref="A1:BJ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4801,4 +4806,507 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>1996</v>
+      </c>
+      <c r="I1">
+        <v>1997</v>
+      </c>
+      <c r="J1">
+        <v>1998</v>
+      </c>
+      <c r="K1">
+        <v>1999</v>
+      </c>
+      <c r="L1">
+        <v>2000</v>
+      </c>
+      <c r="M1">
+        <v>2001</v>
+      </c>
+      <c r="N1">
+        <v>2002</v>
+      </c>
+      <c r="O1">
+        <v>2003</v>
+      </c>
+      <c r="P1">
+        <v>2004</v>
+      </c>
+      <c r="Q1">
+        <v>2005</v>
+      </c>
+      <c r="R1">
+        <v>2006</v>
+      </c>
+      <c r="S1">
+        <v>2007</v>
+      </c>
+      <c r="T1">
+        <v>2008</v>
+      </c>
+      <c r="U1">
+        <v>2009</v>
+      </c>
+      <c r="V1">
+        <v>2010</v>
+      </c>
+      <c r="W1">
+        <v>2011</v>
+      </c>
+      <c r="X1">
+        <v>2012</v>
+      </c>
+      <c r="Y1">
+        <v>2013</v>
+      </c>
+      <c r="Z1">
+        <v>2014</v>
+      </c>
+      <c r="AA1">
+        <v>2015</v>
+      </c>
+      <c r="AB1">
+        <v>2016</v>
+      </c>
+      <c r="AC1">
+        <v>2017</v>
+      </c>
+      <c r="AD1">
+        <v>2018</v>
+      </c>
+      <c r="AE1">
+        <v>2019</v>
+      </c>
+      <c r="AF1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2">
+        <v>714520000</v>
+      </c>
+      <c r="M2">
+        <v>808580000</v>
+      </c>
+      <c r="N2">
+        <v>918200000</v>
+      </c>
+      <c r="O2">
+        <v>999350000</v>
+      </c>
+      <c r="P2">
+        <v>1187470000</v>
+      </c>
+      <c r="Q2">
+        <v>1364510000</v>
+      </c>
+      <c r="R2">
+        <v>1726780000</v>
+      </c>
+      <c r="S2">
+        <v>2072000000</v>
+      </c>
+      <c r="T2">
+        <v>1894140000</v>
+      </c>
+      <c r="U2">
+        <v>1965010000</v>
+      </c>
+      <c r="V2">
+        <v>1934920000</v>
+      </c>
+      <c r="W2">
+        <v>2150610000</v>
+      </c>
+      <c r="X2">
+        <v>2366150000</v>
+      </c>
+      <c r="Y2">
+        <v>2417210000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BQ2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="BL1" sqref="BL1:BQ1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="38" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1">
+        <v>1960</v>
+      </c>
+      <c r="E1">
+        <v>1961</v>
+      </c>
+      <c r="F1">
+        <v>1962</v>
+      </c>
+      <c r="G1">
+        <v>1963</v>
+      </c>
+      <c r="H1">
+        <v>1964</v>
+      </c>
+      <c r="I1">
+        <v>1965</v>
+      </c>
+      <c r="J1">
+        <v>1966</v>
+      </c>
+      <c r="K1">
+        <v>1967</v>
+      </c>
+      <c r="L1">
+        <v>1968</v>
+      </c>
+      <c r="M1">
+        <v>1969</v>
+      </c>
+      <c r="N1">
+        <v>1970</v>
+      </c>
+      <c r="O1">
+        <v>1971</v>
+      </c>
+      <c r="P1">
+        <v>1972</v>
+      </c>
+      <c r="Q1">
+        <v>1973</v>
+      </c>
+      <c r="R1">
+        <v>1974</v>
+      </c>
+      <c r="S1">
+        <v>1975</v>
+      </c>
+      <c r="T1">
+        <v>1976</v>
+      </c>
+      <c r="U1">
+        <v>1977</v>
+      </c>
+      <c r="V1">
+        <v>1978</v>
+      </c>
+      <c r="W1">
+        <v>1979</v>
+      </c>
+      <c r="X1">
+        <v>1980</v>
+      </c>
+      <c r="Y1">
+        <v>1981</v>
+      </c>
+      <c r="Z1">
+        <v>1982</v>
+      </c>
+      <c r="AA1">
+        <v>1983</v>
+      </c>
+      <c r="AB1">
+        <v>1984</v>
+      </c>
+      <c r="AC1">
+        <v>1985</v>
+      </c>
+      <c r="AD1">
+        <v>1986</v>
+      </c>
+      <c r="AE1">
+        <v>1987</v>
+      </c>
+      <c r="AF1">
+        <v>1988</v>
+      </c>
+      <c r="AG1">
+        <v>1989</v>
+      </c>
+      <c r="AH1">
+        <v>1990</v>
+      </c>
+      <c r="AI1">
+        <v>1991</v>
+      </c>
+      <c r="AJ1">
+        <v>1992</v>
+      </c>
+      <c r="AK1">
+        <v>1993</v>
+      </c>
+      <c r="AL1">
+        <v>1994</v>
+      </c>
+      <c r="AM1">
+        <v>1995</v>
+      </c>
+      <c r="AN1">
+        <v>1996</v>
+      </c>
+      <c r="AO1">
+        <v>1997</v>
+      </c>
+      <c r="AP1">
+        <v>1998</v>
+      </c>
+      <c r="AQ1">
+        <v>1999</v>
+      </c>
+      <c r="AR1">
+        <v>2000</v>
+      </c>
+      <c r="AS1">
+        <v>2001</v>
+      </c>
+      <c r="AT1">
+        <v>2002</v>
+      </c>
+      <c r="AU1">
+        <v>2003</v>
+      </c>
+      <c r="AV1">
+        <v>2004</v>
+      </c>
+      <c r="AW1">
+        <v>2005</v>
+      </c>
+      <c r="AX1">
+        <v>2006</v>
+      </c>
+      <c r="AY1">
+        <v>2007</v>
+      </c>
+      <c r="AZ1">
+        <v>2008</v>
+      </c>
+      <c r="BA1">
+        <v>2009</v>
+      </c>
+      <c r="BB1">
+        <v>2010</v>
+      </c>
+      <c r="BC1">
+        <v>2011</v>
+      </c>
+      <c r="BD1">
+        <v>2012</v>
+      </c>
+      <c r="BE1">
+        <v>2013</v>
+      </c>
+      <c r="BF1">
+        <v>2014</v>
+      </c>
+      <c r="BG1">
+        <v>2015</v>
+      </c>
+      <c r="BH1">
+        <v>2016</v>
+      </c>
+      <c r="BI1">
+        <v>2017</v>
+      </c>
+      <c r="BJ1">
+        <v>2018</v>
+      </c>
+      <c r="BK1">
+        <v>2019</v>
+      </c>
+      <c r="BL1">
+        <v>2020</v>
+      </c>
+      <c r="BM1">
+        <v>2021</v>
+      </c>
+      <c r="BN1">
+        <v>2022</v>
+      </c>
+      <c r="BO1">
+        <v>2023</v>
+      </c>
+      <c r="BP1">
+        <v>2024</v>
+      </c>
+      <c r="BQ1">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM2">
+        <v>22.745999999999999</v>
+      </c>
+      <c r="AN2">
+        <v>23.991</v>
+      </c>
+      <c r="AO2">
+        <v>25.373999999999999</v>
+      </c>
+      <c r="AP2">
+        <v>26.329000000000001</v>
+      </c>
+      <c r="AQ2">
+        <v>28.177</v>
+      </c>
+      <c r="AR2">
+        <v>29.687000000000001</v>
+      </c>
+      <c r="AS2">
+        <v>29.276</v>
+      </c>
+      <c r="AT2">
+        <v>30.504999999999999</v>
+      </c>
+      <c r="AU2">
+        <v>31.297999999999998</v>
+      </c>
+      <c r="AV2">
+        <v>33.625</v>
+      </c>
+      <c r="AW2">
+        <v>35.67</v>
+      </c>
+      <c r="AX2">
+        <v>37.241</v>
+      </c>
+      <c r="AY2">
+        <v>39.244</v>
+      </c>
+      <c r="AZ2">
+        <v>39.414000000000001</v>
+      </c>
+      <c r="BA2">
+        <v>38.091999999999999</v>
+      </c>
+      <c r="BB2">
+        <v>40.911999999999999</v>
+      </c>
+      <c r="BC2">
+        <v>41.972000000000001</v>
+      </c>
+      <c r="BD2">
+        <v>42.976999999999997</v>
+      </c>
+      <c r="BE2">
+        <v>43.548000000000002</v>
+      </c>
+      <c r="BF2">
+        <v>44.174999999999997</v>
+      </c>
+      <c r="BG2">
+        <v>45.094000000000001</v>
+      </c>
+      <c r="BH2">
+        <v>47.523897959999999</v>
+      </c>
+      <c r="BI2">
+        <v>49.801243100000001</v>
+      </c>
+      <c r="BJ2">
+        <v>51.711805529999999</v>
+      </c>
+      <c r="BK2">
+        <v>54.065427079999999</v>
+      </c>
+      <c r="BL2">
+        <v>56.278503252999997</v>
+      </c>
+      <c r="BM2">
+        <v>58.491579426000001</v>
+      </c>
+      <c r="BN2">
+        <v>60.704655598999999</v>
+      </c>
+      <c r="BO2">
+        <v>62.917731772000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/fdms/tests/sample_data.xlsx
+++ b/fdms/tests/sample_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="BE" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="BE_ORIG" sheetId="3" r:id="rId3"/>
     <sheet name="base_series1" sheetId="4" r:id="rId4"/>
     <sheet name="test_splice1" sheetId="5" r:id="rId5"/>
+    <sheet name="quarterly_series" sheetId="6" r:id="rId6"/>
+    <sheet name="empty_series" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="76">
   <si>
     <t>Country AMECO</t>
   </si>
@@ -168,6 +170,84 @@
   </si>
   <si>
     <t>UTVTBP_blanks</t>
+  </si>
+  <si>
+    <t>2000Q1</t>
+  </si>
+  <si>
+    <t>2000Q2</t>
+  </si>
+  <si>
+    <t>2000Q3</t>
+  </si>
+  <si>
+    <t>2000Q4</t>
+  </si>
+  <si>
+    <t>2001Q1</t>
+  </si>
+  <si>
+    <t>2001Q2</t>
+  </si>
+  <si>
+    <t>2001Q3</t>
+  </si>
+  <si>
+    <t>2001Q4</t>
+  </si>
+  <si>
+    <t>2002Q1</t>
+  </si>
+  <si>
+    <t>2002Q2</t>
+  </si>
+  <si>
+    <t>2002Q3</t>
+  </si>
+  <si>
+    <t>2002Q4</t>
+  </si>
+  <si>
+    <t>2003Q4</t>
+  </si>
+  <si>
+    <t>2003Q1</t>
+  </si>
+  <si>
+    <t>2003Q2</t>
+  </si>
+  <si>
+    <t>2003Q3</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>indexes</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>YYYYQX</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>is</t>
   </si>
 </sst>
 </file>
@@ -4813,7 +4893,7 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4938,12 +5018,6 @@
       <c r="L2">
         <v>714520000</v>
       </c>
-      <c r="M2">
-        <v>808580000</v>
-      </c>
-      <c r="N2">
-        <v>918200000</v>
-      </c>
       <c r="O2">
         <v>999350000</v>
       </c>
@@ -4980,6 +5054,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4987,8 +5062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="BL1" sqref="BL1:BQ1"/>
+    <sheetView topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="AM2" sqref="AM2:BO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5308,5 +5383,245 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="24" width="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="12" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>22.745999999999999</v>
+      </c>
+      <c r="E2">
+        <v>23.991</v>
+      </c>
+      <c r="F2">
+        <v>25.373999999999999</v>
+      </c>
+      <c r="G2">
+        <v>26.329000000000001</v>
+      </c>
+      <c r="H2">
+        <v>28.177</v>
+      </c>
+      <c r="I2">
+        <v>29.687000000000001</v>
+      </c>
+      <c r="J2">
+        <v>29.276</v>
+      </c>
+      <c r="K2">
+        <v>30.504999999999999</v>
+      </c>
+      <c r="L2">
+        <v>31.297999999999998</v>
+      </c>
+      <c r="M2">
+        <v>33.625</v>
+      </c>
+      <c r="N2">
+        <v>35.67</v>
+      </c>
+      <c r="O2">
+        <v>37.241</v>
+      </c>
+      <c r="P2">
+        <v>39.244</v>
+      </c>
+      <c r="Q2">
+        <v>39.414000000000001</v>
+      </c>
+      <c r="R2">
+        <v>38.091999999999999</v>
+      </c>
+      <c r="S2">
+        <v>40.911999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>22.745999999999999</v>
+      </c>
+      <c r="E2">
+        <v>23.991</v>
+      </c>
+      <c r="F2">
+        <v>25.373999999999999</v>
+      </c>
+      <c r="G2">
+        <v>26.329000000000001</v>
+      </c>
+      <c r="H2">
+        <v>28.177</v>
+      </c>
+      <c r="I2">
+        <v>29.687000000000001</v>
+      </c>
+      <c r="J2">
+        <v>29.276</v>
+      </c>
+      <c r="K2">
+        <v>30.504999999999999</v>
+      </c>
+      <c r="L2">
+        <v>31.297999999999998</v>
+      </c>
+      <c r="M2">
+        <v>33.625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/fdms/tests/sample_data.xlsx
+++ b/fdms/tests/sample_data.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="BE" sheetId="1" r:id="rId1"/>
     <sheet name="BE_AMECO" sheetId="2" r:id="rId2"/>
     <sheet name="BE_ORIG" sheetId="3" r:id="rId3"/>
     <sheet name="base_series1" sheetId="4" r:id="rId4"/>
-    <sheet name="test_splice1" sheetId="5" r:id="rId5"/>
+    <sheet name="ameco1" sheetId="5" r:id="rId5"/>
     <sheet name="quarterly_series" sheetId="6" r:id="rId6"/>
     <sheet name="empty_series" sheetId="7" r:id="rId7"/>
+    <sheet name="ratiosplice" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="81">
   <si>
     <t>Country AMECO</t>
   </si>
@@ -248,6 +249,21 @@
   </si>
   <si>
     <t>is</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>base_series</t>
+  </si>
+  <si>
+    <t>splice_series</t>
+  </si>
+  <si>
+    <t>ratio_splice</t>
+  </si>
+  <si>
+    <t>result</t>
   </si>
 </sst>
 </file>
@@ -590,7 +606,7 @@
   <dimension ref="A1:BP18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2381,7 +2397,7 @@
   <dimension ref="A1:BJ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="A10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5063,7 +5079,7 @@
   <dimension ref="A1:BQ2"/>
   <sheetViews>
     <sheetView topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="AM2" sqref="AM2:BO2"/>
+      <selection activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5391,7 +5407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -5624,4 +5640,446 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AV5" sqref="AV5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="26" width="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="12" bestFit="1" customWidth="1"/>
+    <col min="31" max="36" width="7" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6" bestFit="1" customWidth="1"/>
+    <col min="38" max="47" width="7" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="12" bestFit="1" customWidth="1"/>
+    <col min="50" max="52" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1">
+        <v>1974</v>
+      </c>
+      <c r="G1">
+        <v>1975</v>
+      </c>
+      <c r="H1">
+        <v>1976</v>
+      </c>
+      <c r="I1">
+        <v>1977</v>
+      </c>
+      <c r="J1">
+        <v>1978</v>
+      </c>
+      <c r="K1">
+        <v>1979</v>
+      </c>
+      <c r="L1">
+        <v>1980</v>
+      </c>
+      <c r="M1">
+        <v>1981</v>
+      </c>
+      <c r="N1">
+        <v>1982</v>
+      </c>
+      <c r="O1">
+        <v>1983</v>
+      </c>
+      <c r="P1">
+        <v>1984</v>
+      </c>
+      <c r="Q1">
+        <v>1985</v>
+      </c>
+      <c r="R1">
+        <v>1986</v>
+      </c>
+      <c r="S1">
+        <v>1987</v>
+      </c>
+      <c r="T1">
+        <v>1988</v>
+      </c>
+      <c r="U1">
+        <v>1989</v>
+      </c>
+      <c r="V1">
+        <v>1990</v>
+      </c>
+      <c r="W1">
+        <v>1991</v>
+      </c>
+      <c r="X1">
+        <v>1992</v>
+      </c>
+      <c r="Y1">
+        <v>1993</v>
+      </c>
+      <c r="Z1">
+        <v>1994</v>
+      </c>
+      <c r="AA1">
+        <v>1995</v>
+      </c>
+      <c r="AB1">
+        <v>1996</v>
+      </c>
+      <c r="AC1">
+        <v>1997</v>
+      </c>
+      <c r="AD1">
+        <v>1998</v>
+      </c>
+      <c r="AE1">
+        <v>1999</v>
+      </c>
+      <c r="AF1">
+        <v>2000</v>
+      </c>
+      <c r="AG1">
+        <v>2001</v>
+      </c>
+      <c r="AH1">
+        <v>2002</v>
+      </c>
+      <c r="AI1">
+        <v>2003</v>
+      </c>
+      <c r="AJ1">
+        <v>2004</v>
+      </c>
+      <c r="AK1">
+        <v>2005</v>
+      </c>
+      <c r="AL1">
+        <v>2006</v>
+      </c>
+      <c r="AM1">
+        <v>2007</v>
+      </c>
+      <c r="AN1">
+        <v>2008</v>
+      </c>
+      <c r="AO1">
+        <v>2009</v>
+      </c>
+      <c r="AP1">
+        <v>2010</v>
+      </c>
+      <c r="AQ1">
+        <v>2011</v>
+      </c>
+      <c r="AR1">
+        <v>2012</v>
+      </c>
+      <c r="AS1">
+        <v>2013</v>
+      </c>
+      <c r="AT1">
+        <v>2014</v>
+      </c>
+      <c r="AU1">
+        <v>2015</v>
+      </c>
+      <c r="AV1">
+        <v>2016</v>
+      </c>
+      <c r="AW1">
+        <v>2017</v>
+      </c>
+      <c r="AX1">
+        <v>2018</v>
+      </c>
+      <c r="AY1">
+        <v>2019</v>
+      </c>
+      <c r="AZ1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE2">
+        <v>28.177</v>
+      </c>
+      <c r="AH2">
+        <v>30.504999999999999</v>
+      </c>
+      <c r="AI2">
+        <v>31.297999999999998</v>
+      </c>
+      <c r="AJ2">
+        <v>33.625</v>
+      </c>
+      <c r="AK2">
+        <v>35.67</v>
+      </c>
+      <c r="AL2">
+        <v>37.241</v>
+      </c>
+      <c r="AM2">
+        <v>39.244</v>
+      </c>
+      <c r="AN2">
+        <v>39.414000000000001</v>
+      </c>
+      <c r="AO2">
+        <v>38.091999999999999</v>
+      </c>
+      <c r="AP2">
+        <v>40.911999999999999</v>
+      </c>
+      <c r="AQ2">
+        <v>41.972000000000001</v>
+      </c>
+      <c r="AR2">
+        <v>42.976999999999997</v>
+      </c>
+      <c r="AS2">
+        <v>43.548000000000002</v>
+      </c>
+      <c r="AT2">
+        <v>44.174999999999997</v>
+      </c>
+      <c r="AU2">
+        <v>45.094000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3">
+        <v>149.22810999999999</v>
+      </c>
+      <c r="AB3">
+        <v>152.52087</v>
+      </c>
+      <c r="AC3">
+        <v>155.24593999999999</v>
+      </c>
+      <c r="AD3">
+        <v>159.46986000000001</v>
+      </c>
+      <c r="AE3">
+        <v>162.14247</v>
+      </c>
+      <c r="AF3">
+        <v>166.84976</v>
+      </c>
+      <c r="AG3">
+        <v>168.54158000000001</v>
+      </c>
+      <c r="AH3">
+        <v>169.21231</v>
+      </c>
+      <c r="AI3">
+        <v>170.08725999999999</v>
+      </c>
+      <c r="AJ3">
+        <v>172.74019999999999</v>
+      </c>
+      <c r="AK3">
+        <v>174.8648</v>
+      </c>
+      <c r="AL3">
+        <v>177.43625</v>
+      </c>
+      <c r="AM3">
+        <v>180.72525999999999</v>
+      </c>
+      <c r="AN3">
+        <v>183.78851</v>
+      </c>
+      <c r="AO3">
+        <v>184.69436999999999</v>
+      </c>
+      <c r="AP3">
+        <v>189.69300000000001</v>
+      </c>
+      <c r="AQ3">
+        <v>190.34499</v>
+      </c>
+      <c r="AR3">
+        <v>191.46818999999999</v>
+      </c>
+      <c r="AS3">
+        <v>192.89769999999999</v>
+      </c>
+      <c r="AT3">
+        <v>194.13987</v>
+      </c>
+      <c r="AU3">
+        <v>196.19515000000001</v>
+      </c>
+      <c r="AV3">
+        <v>197.60775509999999</v>
+      </c>
+      <c r="AW3">
+        <v>200.3347421</v>
+      </c>
+      <c r="AX3">
+        <v>203.2596293</v>
+      </c>
+      <c r="AY3">
+        <v>220</v>
+      </c>
+      <c r="AZ3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" ref="AA4:AC4" si="0">AA3/AB3*AB4</f>
+        <v>25.932751952465011</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="0"/>
+        <v>26.50496538007593</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="0"/>
+        <v>26.978526054154717</v>
+      </c>
+      <c r="AD4">
+        <f>AD3/AE3*AE4</f>
+        <v>27.712555786401921</v>
+      </c>
+      <c r="AE4">
+        <v>28.177</v>
+      </c>
+      <c r="AH4">
+        <v>30.504999999999999</v>
+      </c>
+      <c r="AI4">
+        <v>31.297999999999998</v>
+      </c>
+      <c r="AJ4">
+        <v>33.625</v>
+      </c>
+      <c r="AK4">
+        <v>35.67</v>
+      </c>
+      <c r="AL4">
+        <v>37.241</v>
+      </c>
+      <c r="AM4">
+        <v>39.244</v>
+      </c>
+      <c r="AN4">
+        <v>39.414000000000001</v>
+      </c>
+      <c r="AO4">
+        <v>38.091999999999999</v>
+      </c>
+      <c r="AP4">
+        <v>40.911999999999999</v>
+      </c>
+      <c r="AQ4">
+        <v>41.972000000000001</v>
+      </c>
+      <c r="AR4">
+        <v>42.976999999999997</v>
+      </c>
+      <c r="AS4">
+        <v>43.548000000000002</v>
+      </c>
+      <c r="AT4">
+        <v>44.174999999999997</v>
+      </c>
+      <c r="AU4">
+        <v>45.094000000000001</v>
+      </c>
+      <c r="AV4">
+        <f>AV3/AU3*AU4</f>
+        <v>45.418676804596849</v>
+      </c>
+      <c r="AW4">
+        <f t="shared" ref="AW4:AX4" si="1">AW3/AV3*AV4</f>
+        <v>46.045454539816099</v>
+      </c>
+      <c r="AX4">
+        <f t="shared" si="1"/>
+        <v>46.717718168131071</v>
+      </c>
+      <c r="AY4">
+        <f t="shared" ref="AY4" si="2">AY3/AX3*AX4</f>
+        <v>50.565368206094803</v>
+      </c>
+      <c r="AZ4">
+        <f t="shared" ref="AZ4" si="3">AZ3/AY3*AY4</f>
+        <v>57.460645688744101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/fdms/tests/sample_data.xlsx
+++ b/fdms/tests/sample_data.xlsx
@@ -5644,10 +5644,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ4"/>
+  <dimension ref="A1:AZ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AV5" sqref="AV5"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5998,20 +5998,20 @@
         <v>11</v>
       </c>
       <c r="AA4">
-        <f t="shared" ref="AA4:AC4" si="0">AA3/AB3*AB4</f>
+        <f t="shared" ref="Z4:AC4" si="0">AB4/(AB3/AA3)</f>
         <v>25.932751952465011</v>
       </c>
       <c r="AB4">
         <f t="shared" si="0"/>
-        <v>26.50496538007593</v>
+        <v>26.504965380075927</v>
       </c>
       <c r="AC4">
         <f t="shared" si="0"/>
         <v>26.978526054154717</v>
       </c>
       <c r="AD4">
-        <f>AD3/AE3*AE4</f>
-        <v>27.712555786401921</v>
+        <f>AE4/(AE3/AD3)</f>
+        <v>27.712555786401925</v>
       </c>
       <c r="AE4">
         <v>28.177</v>
@@ -6077,6 +6077,28 @@
       <c r="AZ4">
         <f t="shared" ref="AZ4" si="3">AZ3/AY3*AY4</f>
         <v>57.460645688744101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AV8">
+        <f>AV3/AU3</f>
+        <v>1.0072000001019392</v>
+      </c>
+      <c r="AW8">
+        <f t="shared" ref="AW8:AZ8" si="4">AW3/AV3</f>
+        <v>1.0137999998968665</v>
+      </c>
+      <c r="AX8">
+        <f t="shared" si="4"/>
+        <v>1.0145999998269897</v>
+      </c>
+      <c r="AY8">
+        <f t="shared" si="4"/>
+        <v>1.0823595455607771</v>
+      </c>
+      <c r="AZ8">
+        <f t="shared" si="4"/>
+        <v>1.1363636363636365</v>
       </c>
     </row>
   </sheetData>

--- a/fdms/tests/sample_data.xlsx
+++ b/fdms/tests/sample_data.xlsx
@@ -5647,7 +5647,7 @@
   <dimension ref="A1:AZ8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+      <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5998,7 +5998,7 @@
         <v>11</v>
       </c>
       <c r="AA4">
-        <f t="shared" ref="Z4:AC4" si="0">AB4/(AB3/AA3)</f>
+        <f t="shared" ref="AA4:AC4" si="0">AB4/(AB3/AA3)</f>
         <v>25.932751952465011</v>
       </c>
       <c r="AB4">

--- a/fdms/tests/sample_data.xlsx
+++ b/fdms/tests/sample_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="BE" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="quarterly_series" sheetId="6" r:id="rId6"/>
     <sheet name="empty_series" sheetId="7" r:id="rId7"/>
     <sheet name="ratiosplice" sheetId="8" r:id="rId8"/>
+    <sheet name="levelsplice" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="82">
   <si>
     <t>Country AMECO</t>
   </si>
@@ -264,6 +265,9 @@
   </si>
   <si>
     <t>result</t>
+  </si>
+  <si>
+    <t>level_splice</t>
   </si>
 </sst>
 </file>
@@ -5646,8 +5650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AB7" sqref="AB7"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6104,4 +6108,484 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AF11" sqref="AF11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="26" width="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="12" bestFit="1" customWidth="1"/>
+    <col min="31" max="36" width="7" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6" bestFit="1" customWidth="1"/>
+    <col min="38" max="47" width="7" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="12" bestFit="1" customWidth="1"/>
+    <col min="50" max="52" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1">
+        <v>1974</v>
+      </c>
+      <c r="G1">
+        <v>1975</v>
+      </c>
+      <c r="H1">
+        <v>1976</v>
+      </c>
+      <c r="I1">
+        <v>1977</v>
+      </c>
+      <c r="J1">
+        <v>1978</v>
+      </c>
+      <c r="K1">
+        <v>1979</v>
+      </c>
+      <c r="L1">
+        <v>1980</v>
+      </c>
+      <c r="M1">
+        <v>1981</v>
+      </c>
+      <c r="N1">
+        <v>1982</v>
+      </c>
+      <c r="O1">
+        <v>1983</v>
+      </c>
+      <c r="P1">
+        <v>1984</v>
+      </c>
+      <c r="Q1">
+        <v>1985</v>
+      </c>
+      <c r="R1">
+        <v>1986</v>
+      </c>
+      <c r="S1">
+        <v>1987</v>
+      </c>
+      <c r="T1">
+        <v>1988</v>
+      </c>
+      <c r="U1">
+        <v>1989</v>
+      </c>
+      <c r="V1">
+        <v>1990</v>
+      </c>
+      <c r="W1">
+        <v>1991</v>
+      </c>
+      <c r="X1">
+        <v>1992</v>
+      </c>
+      <c r="Y1">
+        <v>1993</v>
+      </c>
+      <c r="Z1">
+        <v>1994</v>
+      </c>
+      <c r="AA1">
+        <v>1995</v>
+      </c>
+      <c r="AB1">
+        <v>1996</v>
+      </c>
+      <c r="AC1">
+        <v>1997</v>
+      </c>
+      <c r="AD1">
+        <v>1998</v>
+      </c>
+      <c r="AE1">
+        <v>1999</v>
+      </c>
+      <c r="AF1">
+        <v>2000</v>
+      </c>
+      <c r="AG1">
+        <v>2001</v>
+      </c>
+      <c r="AH1">
+        <v>2002</v>
+      </c>
+      <c r="AI1">
+        <v>2003</v>
+      </c>
+      <c r="AJ1">
+        <v>2004</v>
+      </c>
+      <c r="AK1">
+        <v>2005</v>
+      </c>
+      <c r="AL1">
+        <v>2006</v>
+      </c>
+      <c r="AM1">
+        <v>2007</v>
+      </c>
+      <c r="AN1">
+        <v>2008</v>
+      </c>
+      <c r="AO1">
+        <v>2009</v>
+      </c>
+      <c r="AP1">
+        <v>2010</v>
+      </c>
+      <c r="AQ1">
+        <v>2011</v>
+      </c>
+      <c r="AR1">
+        <v>2012</v>
+      </c>
+      <c r="AS1">
+        <v>2013</v>
+      </c>
+      <c r="AT1">
+        <v>2014</v>
+      </c>
+      <c r="AU1">
+        <v>2015</v>
+      </c>
+      <c r="AV1">
+        <v>2016</v>
+      </c>
+      <c r="AW1">
+        <v>2017</v>
+      </c>
+      <c r="AX1">
+        <v>2018</v>
+      </c>
+      <c r="AY1">
+        <v>2019</v>
+      </c>
+      <c r="AZ1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE2">
+        <v>28.177</v>
+      </c>
+      <c r="AH2">
+        <v>30.504999999999999</v>
+      </c>
+      <c r="AI2">
+        <v>31.297999999999998</v>
+      </c>
+      <c r="AJ2">
+        <v>33.625</v>
+      </c>
+      <c r="AK2">
+        <v>35.67</v>
+      </c>
+      <c r="AL2">
+        <v>37.241</v>
+      </c>
+      <c r="AM2">
+        <v>39.244</v>
+      </c>
+      <c r="AN2">
+        <v>39.414000000000001</v>
+      </c>
+      <c r="AO2">
+        <v>38.091999999999999</v>
+      </c>
+      <c r="AP2">
+        <v>40.911999999999999</v>
+      </c>
+      <c r="AQ2">
+        <v>41.972000000000001</v>
+      </c>
+      <c r="AR2">
+        <v>42.976999999999997</v>
+      </c>
+      <c r="AS2">
+        <v>43.548000000000002</v>
+      </c>
+      <c r="AT2">
+        <v>44.174999999999997</v>
+      </c>
+      <c r="AU2">
+        <v>45.094000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3">
+        <v>149.22810999999999</v>
+      </c>
+      <c r="AB3">
+        <v>152.52087</v>
+      </c>
+      <c r="AC3">
+        <v>155.24593999999999</v>
+      </c>
+      <c r="AD3">
+        <v>159.46986000000001</v>
+      </c>
+      <c r="AE3">
+        <v>162.14247</v>
+      </c>
+      <c r="AF3">
+        <v>166.84976</v>
+      </c>
+      <c r="AG3">
+        <v>168.54158000000001</v>
+      </c>
+      <c r="AH3">
+        <v>169.21231</v>
+      </c>
+      <c r="AI3">
+        <v>170.08725999999999</v>
+      </c>
+      <c r="AJ3">
+        <v>172.74019999999999</v>
+      </c>
+      <c r="AK3">
+        <v>174.8648</v>
+      </c>
+      <c r="AL3">
+        <v>177.43625</v>
+      </c>
+      <c r="AM3">
+        <v>180.72525999999999</v>
+      </c>
+      <c r="AN3">
+        <v>183.78851</v>
+      </c>
+      <c r="AO3">
+        <v>184.69436999999999</v>
+      </c>
+      <c r="AP3">
+        <v>189.69300000000001</v>
+      </c>
+      <c r="AQ3">
+        <v>190.34499</v>
+      </c>
+      <c r="AR3">
+        <v>191.46818999999999</v>
+      </c>
+      <c r="AS3">
+        <v>192.89769999999999</v>
+      </c>
+      <c r="AT3">
+        <v>194.13987</v>
+      </c>
+      <c r="AU3">
+        <v>196.19515000000001</v>
+      </c>
+      <c r="AV3">
+        <v>197.60775509999999</v>
+      </c>
+      <c r="AW3">
+        <v>100</v>
+      </c>
+      <c r="AX3">
+        <v>50</v>
+      </c>
+      <c r="AY3">
+        <v>220</v>
+      </c>
+      <c r="AZ3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" ref="AA4:AC4" si="0">AA3-AB3+AB4</f>
+        <v>15.262639999999983</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="0"/>
+        <v>18.555399999999999</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="0"/>
+        <v>21.280469999999987</v>
+      </c>
+      <c r="AD4">
+        <f>AD3-AE3+AE4</f>
+        <v>25.504390000000008</v>
+      </c>
+      <c r="AE4">
+        <v>28.177</v>
+      </c>
+      <c r="AH4">
+        <v>30.504999999999999</v>
+      </c>
+      <c r="AI4">
+        <v>31.297999999999998</v>
+      </c>
+      <c r="AJ4">
+        <v>33.625</v>
+      </c>
+      <c r="AK4">
+        <v>35.67</v>
+      </c>
+      <c r="AL4">
+        <v>37.241</v>
+      </c>
+      <c r="AM4">
+        <v>39.244</v>
+      </c>
+      <c r="AN4">
+        <v>39.414000000000001</v>
+      </c>
+      <c r="AO4">
+        <v>38.091999999999999</v>
+      </c>
+      <c r="AP4">
+        <v>40.911999999999999</v>
+      </c>
+      <c r="AQ4">
+        <v>41.972000000000001</v>
+      </c>
+      <c r="AR4">
+        <v>42.976999999999997</v>
+      </c>
+      <c r="AS4">
+        <v>43.548000000000002</v>
+      </c>
+      <c r="AT4">
+        <v>44.174999999999997</v>
+      </c>
+      <c r="AU4">
+        <v>45.094000000000001</v>
+      </c>
+      <c r="AV4">
+        <f>AV3-AU3+AU2</f>
+        <v>46.50660509999998</v>
+      </c>
+      <c r="AW4">
+        <f>AW3-AV3+AV4</f>
+        <v>-51.101150000000011</v>
+      </c>
+      <c r="AX4">
+        <f t="shared" ref="AX4:AZ4" si="1">AX3-AW3+AW4</f>
+        <v>-101.10115000000002</v>
+      </c>
+      <c r="AY4">
+        <f t="shared" si="1"/>
+        <v>68.898849999999982</v>
+      </c>
+      <c r="AZ4">
+        <f t="shared" si="1"/>
+        <v>98.898849999999982</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AA8">
+        <f t="shared" ref="AA8:AC8" si="2">AB3-AA3</f>
+        <v>3.2927600000000155</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="2"/>
+        <v>2.7250699999999881</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="2"/>
+        <v>4.223920000000021</v>
+      </c>
+      <c r="AD8">
+        <f>AE3-AD3</f>
+        <v>2.6726099999999917</v>
+      </c>
+      <c r="AV8">
+        <f>AV3-AU3</f>
+        <v>1.4126050999999791</v>
+      </c>
+      <c r="AW8">
+        <f t="shared" ref="AW8:AZ8" si="3">AW3-AV3</f>
+        <v>-97.607755099999991</v>
+      </c>
+      <c r="AX8">
+        <f t="shared" si="3"/>
+        <v>-50</v>
+      </c>
+      <c r="AY8">
+        <f t="shared" si="3"/>
+        <v>170</v>
+      </c>
+      <c r="AZ8">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/fdms/tests/sample_data.xlsx
+++ b/fdms/tests/sample_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="BE" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="empty_series" sheetId="7" r:id="rId7"/>
     <sheet name="ratiosplice" sheetId="8" r:id="rId8"/>
     <sheet name="levelsplice" sheetId="9" r:id="rId9"/>
+    <sheet name="merge" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="88">
   <si>
     <t>Country AMECO</t>
   </si>
@@ -268,6 +269,24 @@
   </si>
   <si>
     <t>level_splice</t>
+  </si>
+  <si>
+    <t>series1</t>
+  </si>
+  <si>
+    <t>series2</t>
+  </si>
+  <si>
+    <t>series3</t>
+  </si>
+  <si>
+    <t>series4</t>
+  </si>
+  <si>
+    <t>series5</t>
+  </si>
+  <si>
+    <t>expected</t>
   </si>
 </sst>
 </file>
@@ -2396,6 +2415,202 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1">
+        <v>2000</v>
+      </c>
+      <c r="F1">
+        <v>2001</v>
+      </c>
+      <c r="G1">
+        <v>2002</v>
+      </c>
+      <c r="H1">
+        <v>2003</v>
+      </c>
+      <c r="I1">
+        <v>2004</v>
+      </c>
+      <c r="J1">
+        <v>2005</v>
+      </c>
+      <c r="K1">
+        <v>2006</v>
+      </c>
+      <c r="L1">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ14"/>
@@ -4583,7 +4798,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5650,7 +5865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ8"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6114,7 +6329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="AF11" sqref="AF11"/>
     </sheetView>
   </sheetViews>

--- a/fdms/tests/sample_data.xlsx
+++ b/fdms/tests/sample_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="BE" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="ratiosplice" sheetId="8" r:id="rId8"/>
     <sheet name="levelsplice" sheetId="9" r:id="rId9"/>
     <sheet name="merge" sheetId="10" r:id="rId10"/>
+    <sheet name="iin" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="89">
   <si>
     <t>Country AMECO</t>
   </si>
@@ -287,6 +288,9 @@
   </si>
   <si>
     <t>expected</t>
+  </si>
+  <si>
+    <t>new_data</t>
   </si>
 </sst>
 </file>
@@ -629,7 +633,7 @@
   <dimension ref="A1:BP18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2419,7 +2423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -2611,12 +2615,412 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="15" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="29" width="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1">
+        <v>1994</v>
+      </c>
+      <c r="G1">
+        <v>1995</v>
+      </c>
+      <c r="H1">
+        <v>1996</v>
+      </c>
+      <c r="I1">
+        <v>1997</v>
+      </c>
+      <c r="J1">
+        <v>1998</v>
+      </c>
+      <c r="K1">
+        <v>1999</v>
+      </c>
+      <c r="L1">
+        <v>2000</v>
+      </c>
+      <c r="M1">
+        <v>2001</v>
+      </c>
+      <c r="N1">
+        <v>2002</v>
+      </c>
+      <c r="O1">
+        <v>2003</v>
+      </c>
+      <c r="P1">
+        <v>2004</v>
+      </c>
+      <c r="Q1">
+        <v>2005</v>
+      </c>
+      <c r="R1">
+        <v>2006</v>
+      </c>
+      <c r="S1">
+        <v>2007</v>
+      </c>
+      <c r="T1">
+        <v>2008</v>
+      </c>
+      <c r="U1">
+        <v>2009</v>
+      </c>
+      <c r="V1">
+        <v>2010</v>
+      </c>
+      <c r="W1">
+        <v>2011</v>
+      </c>
+      <c r="X1">
+        <v>2012</v>
+      </c>
+      <c r="Y1">
+        <v>2013</v>
+      </c>
+      <c r="Z1">
+        <v>2014</v>
+      </c>
+      <c r="AA1">
+        <v>2015</v>
+      </c>
+      <c r="AB1">
+        <v>2016</v>
+      </c>
+      <c r="AC1">
+        <v>2017</v>
+      </c>
+      <c r="AD1">
+        <v>2018</v>
+      </c>
+      <c r="AE1">
+        <v>2019</v>
+      </c>
+      <c r="AF1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>464030000</v>
+      </c>
+      <c r="I2">
+        <v>585240000</v>
+      </c>
+      <c r="L2">
+        <v>714520000</v>
+      </c>
+      <c r="M2">
+        <v>808580000</v>
+      </c>
+      <c r="O2">
+        <v>999350000</v>
+      </c>
+      <c r="Q2">
+        <v>1364510000</v>
+      </c>
+      <c r="R2">
+        <v>1726780000</v>
+      </c>
+      <c r="S2">
+        <v>2072000000</v>
+      </c>
+      <c r="T2">
+        <v>1894140000</v>
+      </c>
+      <c r="U2">
+        <v>1965010000</v>
+      </c>
+      <c r="V2">
+        <v>1934920000</v>
+      </c>
+      <c r="W2">
+        <v>2150610000</v>
+      </c>
+      <c r="X2">
+        <v>2366150000</v>
+      </c>
+      <c r="Y2">
+        <v>2417210000</v>
+      </c>
+      <c r="Z2">
+        <v>2622030000</v>
+      </c>
+      <c r="AA2">
+        <v>2860634730</v>
+      </c>
+      <c r="AB2">
+        <v>3078042969.48</v>
+      </c>
+      <c r="AC2">
+        <v>3321208364.0689201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>6</v>
+      </c>
+      <c r="N3">
+        <v>7</v>
+      </c>
+      <c r="O3">
+        <v>8</v>
+      </c>
+      <c r="P3">
+        <v>9</v>
+      </c>
+      <c r="Q3">
+        <v>10</v>
+      </c>
+      <c r="R3">
+        <v>11</v>
+      </c>
+      <c r="S3">
+        <v>12</v>
+      </c>
+      <c r="T3">
+        <v>13</v>
+      </c>
+      <c r="U3">
+        <v>14</v>
+      </c>
+      <c r="V3">
+        <v>15</v>
+      </c>
+      <c r="W3">
+        <v>16</v>
+      </c>
+      <c r="X3">
+        <v>17</v>
+      </c>
+      <c r="Y3">
+        <v>18</v>
+      </c>
+      <c r="Z3">
+        <v>19</v>
+      </c>
+      <c r="AA3">
+        <v>20</v>
+      </c>
+      <c r="AB3">
+        <v>21</v>
+      </c>
+      <c r="AC3">
+        <v>22</v>
+      </c>
+      <c r="AD3">
+        <v>23</v>
+      </c>
+      <c r="AE3">
+        <v>24</v>
+      </c>
+      <c r="AF3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f>H2/1000000</f>
+        <v>464.03</v>
+      </c>
+      <c r="I4">
+        <f>I2/1000000</f>
+        <v>585.24</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <f>L2/1000000</f>
+        <v>714.52</v>
+      </c>
+      <c r="M4">
+        <f>M2/1000000</f>
+        <v>808.58</v>
+      </c>
+      <c r="N4">
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <f>O2/1000000</f>
+        <v>999.35</v>
+      </c>
+      <c r="P4">
+        <v>9</v>
+      </c>
+      <c r="Q4">
+        <f>Q2/1000000</f>
+        <v>1364.51</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:AC4" si="0">R2/1000000</f>
+        <v>1726.78</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>2072</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>1894.14</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>1965.01</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>1934.92</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>2150.61</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>2366.15</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>2417.21</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>2622.03</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="0"/>
+        <v>2860.6347300000002</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="0"/>
+        <v>3078.04296948</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="0"/>
+        <v>3321.2083640689202</v>
+      </c>
+      <c r="AD4">
+        <v>23</v>
+      </c>
+      <c r="AE4">
+        <v>24</v>
+      </c>
+      <c r="AF4">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C10"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5297,8 +5701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ2"/>
   <sheetViews>
-    <sheetView topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="AM2" sqref="AM2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BO2" sqref="AM2:BO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
